--- a/data/2026-02-03/fitness_data_20260206_131655.xlsx
+++ b/data/2026-02-03/fitness_data_20260206_131655.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Walkathon\fitness-challenge\data\2026-02-03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C96F8A-7C45-4883-86F3-82FC4D0CA89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-84" yWindow="0" windowWidth="13260" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="229">
   <si>
     <t>folder_name</t>
   </si>
@@ -707,8 +713,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,13 +777,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -815,7 +829,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -849,6 +863,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -883,9 +898,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1058,14 +1074,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1134,7 @@
         <v>152</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11082</v>
       </c>
       <c r="E2">
         <v>614</v>
@@ -1123,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1178,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1163,7 +1189,7 @@
         <v>153</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>10107</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1178,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1215,7 @@
         <v>154</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>12210</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1207,7 +1233,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1262,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1273,7 @@
         <v>154</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4144</v>
       </c>
       <c r="E7">
         <v>207</v>
@@ -1265,7 +1291,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1276,7 +1302,7 @@
         <v>155</v>
       </c>
       <c r="D8">
-        <v>20000</v>
+        <v>12350</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1294,7 +1320,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1305,7 +1331,7 @@
         <v>156</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>20013</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1320,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1375,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1360,7 +1386,7 @@
         <v>157</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>5260</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1378,7 +1404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1415,7 @@
         <v>158</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>16307</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1404,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1459,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1488,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1499,7 @@
         <v>161</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>8371</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1488,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +1543,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1528,7 +1554,7 @@
         <v>162</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>9329</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1543,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +1580,7 @@
         <v>163</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>20247</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1569,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1598,7 +1624,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1609,13 +1635,13 @@
         <v>164</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>13893</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1624,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1653,7 +1679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1664,13 +1690,13 @@
         <v>165</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>11383</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1679,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1708,7 +1734,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1719,13 +1745,13 @@
         <v>165</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>11383</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1734,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1745,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>5034</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1760,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1782,11 +1808,14 @@
       <c r="G26">
         <v>90</v>
       </c>
+      <c r="H26" t="s">
+        <v>217</v>
+      </c>
       <c r="I26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +1844,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1826,7 +1855,7 @@
         <v>168</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>11098</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1841,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1899,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1881,7 +1910,7 @@
         <v>169</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>11701</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1896,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1907,7 +1936,7 @@
         <v>169</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>11701</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1922,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1933,7 +1962,7 @@
         <v>170</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>20271</v>
       </c>
       <c r="E32">
         <v>505</v>
@@ -1948,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1977,7 +2006,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2006,7 +2035,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2017,7 +2046,7 @@
         <v>171</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>14926</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2032,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2061,7 +2090,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2090,7 +2119,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2130,7 @@
         <v>172</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>6361</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2116,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2145,7 +2174,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2156,7 +2185,7 @@
         <v>173</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>5952</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2171,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2211,7 @@
         <v>174</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>4451</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2197,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2226,7 +2255,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2255,7 +2284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2266,7 +2295,7 @@
         <v>175</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>16342</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2281,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2310,7 +2339,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2321,7 +2350,7 @@
         <v>176</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>14779</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2336,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2347,7 +2376,7 @@
         <v>177</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>20118</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2365,7 +2394,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2394,7 +2423,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2405,7 +2434,7 @@
         <v>178</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>9183</v>
       </c>
       <c r="E49">
         <v>378</v>
@@ -2416,14 +2445,11 @@
       <c r="G49">
         <v>27</v>
       </c>
-      <c r="H49" t="s">
-        <v>217</v>
-      </c>
       <c r="I49">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2452,7 +2478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2474,11 +2500,14 @@
       <c r="G51">
         <v>49</v>
       </c>
+      <c r="H51" t="s">
+        <v>217</v>
+      </c>
       <c r="I51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2507,7 +2536,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2536,7 +2565,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2553,7 +2582,7 @@
         <v>377</v>
       </c>
       <c r="F54">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G54">
         <v>46</v>
@@ -2565,7 +2594,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2576,7 +2605,7 @@
         <v>180</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>10049</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2591,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2602,7 +2631,7 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>16813</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2617,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2628,7 +2657,7 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>11122</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2646,7 +2675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2657,7 +2686,7 @@
         <v>181</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>13534</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2672,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2683,7 +2712,7 @@
         <v>182</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>12228</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2698,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2709,7 +2738,7 @@
         <v>183</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>4529</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2724,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2753,7 +2782,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +2793,7 @@
         <v>184</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>6747</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2779,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2790,7 +2819,7 @@
         <v>184</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>6788</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2805,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2816,7 +2845,7 @@
         <v>184</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>6788</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2834,7 +2863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2845,7 +2874,7 @@
         <v>185</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>4603</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2863,7 +2892,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2874,7 +2903,7 @@
         <v>185</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>4691</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2892,7 +2921,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2903,7 +2932,7 @@
         <v>185</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>4058</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2921,7 +2950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2932,7 +2961,7 @@
         <v>185</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>3503</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2950,7 +2979,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2961,7 +2990,7 @@
         <v>185</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>4424</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2979,7 +3008,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2990,7 +3019,7 @@
         <v>186</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>8611</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3008,7 +3037,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3037,7 +3066,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3066,7 +3095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3077,7 +3106,7 @@
         <v>188</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>10970</v>
       </c>
       <c r="E73">
         <v>2106</v>
@@ -3092,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3121,7 +3150,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3132,7 +3161,7 @@
         <v>188</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>15321</v>
       </c>
       <c r="E75">
         <v>2476</v>
@@ -3147,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3176,7 +3205,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3187,7 +3216,7 @@
         <v>189</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>12621</v>
       </c>
       <c r="E77">
         <v>300</v>
@@ -3198,11 +3227,14 @@
       <c r="G77">
         <v>30</v>
       </c>
+      <c r="H77" t="s">
+        <v>217</v>
+      </c>
       <c r="I77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3213,7 +3245,7 @@
         <v>189</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>12621</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3228,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3257,7 +3289,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3279,11 +3311,14 @@
       <c r="G80">
         <v>1210</v>
       </c>
+      <c r="H80" t="s">
+        <v>217</v>
+      </c>
       <c r="I80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3312,7 +3347,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3341,7 +3376,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3363,11 +3398,14 @@
       <c r="G83">
         <v>0</v>
       </c>
+      <c r="H83" t="s">
+        <v>217</v>
+      </c>
       <c r="I83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3396,7 +3434,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3407,7 +3445,7 @@
         <v>190</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>20038</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3418,14 +3456,11 @@
       <c r="G85">
         <v>48</v>
       </c>
-      <c r="H85" t="s">
-        <v>217</v>
-      </c>
       <c r="I85">
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3454,7 +3489,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3465,7 +3500,7 @@
         <v>192</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>15174</v>
       </c>
       <c r="E87">
         <v>2612</v>
@@ -3480,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3491,7 +3526,7 @@
         <v>193</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>10147</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3506,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3517,7 +3552,7 @@
         <v>194</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>6733</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3532,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3543,7 +3578,7 @@
         <v>194</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>5101</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3558,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3569,7 +3604,7 @@
         <v>194</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>5692</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3584,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3595,7 +3630,7 @@
         <v>194</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3610,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3621,7 +3656,7 @@
         <v>194</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>5096</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3636,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3647,7 +3682,7 @@
         <v>194</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>6490</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3662,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3673,7 +3708,7 @@
         <v>195</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>12485</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3688,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3717,7 +3752,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3728,7 +3763,7 @@
         <v>196</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>2108</v>
       </c>
       <c r="E97">
         <v>147</v>
@@ -3746,7 +3781,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3757,7 +3792,7 @@
         <v>197</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>15124</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3772,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3783,7 +3818,7 @@
         <v>197</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>13542</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3798,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3809,7 +3844,7 @@
         <v>198</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E100">
         <v>207</v>
@@ -3827,7 +3862,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3838,7 +3873,7 @@
         <v>198</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>5564</v>
       </c>
       <c r="E101">
         <v>256</v>
@@ -3856,7 +3891,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3867,13 +3902,13 @@
         <v>198</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>3362</v>
       </c>
       <c r="E102">
         <v>176</v>
       </c>
       <c r="F102">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G102">
         <v>38</v>
@@ -3885,7 +3920,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -3896,7 +3931,7 @@
         <v>198</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E103">
         <v>161</v>
@@ -3914,7 +3949,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -3925,7 +3960,7 @@
         <v>198</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1985</v>
       </c>
       <c r="E104">
         <v>103</v>
@@ -3943,7 +3978,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -3954,7 +3989,7 @@
         <v>198</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>6643</v>
       </c>
       <c r="E105">
         <v>325</v>
@@ -3972,7 +4007,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -3983,13 +4018,13 @@
         <v>198</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>3514</v>
       </c>
       <c r="E106">
         <v>184</v>
       </c>
       <c r="F106">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G106">
         <v>39</v>
@@ -4001,7 +4036,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4012,13 +4047,13 @@
         <v>198</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>6366</v>
       </c>
       <c r="E107">
         <v>301</v>
       </c>
       <c r="F107">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="G107">
         <v>64</v>
@@ -4030,7 +4065,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -4041,7 +4076,7 @@
         <v>198</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>3039</v>
       </c>
       <c r="E108">
         <v>161</v>
@@ -4059,7 +4094,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4081,11 +4116,14 @@
       <c r="G109">
         <v>46</v>
       </c>
+      <c r="H109" t="s">
+        <v>217</v>
+      </c>
       <c r="I109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -4114,7 +4152,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4125,7 +4163,7 @@
         <v>201</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>3892</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4140,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -4151,7 +4189,7 @@
         <v>201</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>3892</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4169,7 +4207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -4198,7 +4236,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -4209,7 +4247,7 @@
         <v>202</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>3377</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4224,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -4235,13 +4273,13 @@
         <v>203</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>10958</v>
       </c>
       <c r="E115">
         <v>1775</v>
       </c>
       <c r="F115">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G115">
         <v>90</v>
@@ -4250,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4261,7 +4299,7 @@
         <v>204</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>20072</v>
       </c>
       <c r="E116">
         <v>679</v>
@@ -4276,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -4305,7 +4343,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -4316,7 +4354,7 @@
         <v>205</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>8645</v>
       </c>
       <c r="E118">
         <v>1454</v>
@@ -4331,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -4342,7 +4380,7 @@
         <v>205</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>8645</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4357,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4374,7 +4412,7 @@
         <v>86</v>
       </c>
       <c r="F120">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G120">
         <v>43</v>
@@ -4386,7 +4424,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4397,7 +4435,7 @@
         <v>206</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>6950</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4412,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -4441,7 +4479,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4452,7 +4490,7 @@
         <v>207</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>16060</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4467,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -4496,7 +4534,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -4525,7 +4563,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4554,7 +4592,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -4565,7 +4603,7 @@
         <v>208</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>12187</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -4580,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -4602,11 +4640,14 @@
       <c r="G128">
         <v>0</v>
       </c>
+      <c r="H128" t="s">
+        <v>216</v>
+      </c>
       <c r="I128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -4617,7 +4658,7 @@
         <v>208</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>3083</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -4632,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -4643,7 +4684,7 @@
         <v>209</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>13402</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -4658,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -4669,25 +4710,22 @@
         <v>210</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>10866</v>
       </c>
       <c r="E131">
         <v>2174</v>
       </c>
       <c r="F131">
-        <v>8.050000000000001</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G131">
         <v>120</v>
       </c>
-      <c r="H131" t="s">
-        <v>217</v>
-      </c>
       <c r="I131">
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -4716,7 +4754,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -4727,7 +4765,7 @@
         <v>211</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>5064</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -4742,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -4753,7 +4791,7 @@
         <v>212</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>10114</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -4768,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -4779,7 +4817,7 @@
         <v>213</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>6977</v>
       </c>
       <c r="E135">
         <v>628</v>
@@ -4794,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -4823,7 +4861,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -4852,7 +4890,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -4881,7 +4919,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -4892,7 +4930,7 @@
         <v>214</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>7904</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4907,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4936,7 +4974,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -4965,7 +5003,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -5000,14 +5038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5033,7 +5071,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>189</v>
       </c>
@@ -5056,7 +5094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -5082,7 +5120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -5105,7 +5143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -5131,7 +5169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -5157,7 +5195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -5183,7 +5221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -5209,7 +5247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -5232,7 +5270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -5258,7 +5296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>160</v>
       </c>
@@ -5284,7 +5322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -5310,7 +5348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -5333,7 +5371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -5359,7 +5397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -5370,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5382,7 +5420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>165</v>
       </c>
@@ -5408,7 +5446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -5431,7 +5469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -5457,7 +5495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -5480,7 +5518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -5506,7 +5544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -5532,7 +5570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>171</v>
       </c>
@@ -5555,7 +5593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -5581,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>173</v>
       </c>
@@ -5604,7 +5642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>174</v>
       </c>
@@ -5630,7 +5668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>175</v>
       </c>
@@ -5656,7 +5694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>176</v>
       </c>
@@ -5682,7 +5720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -5708,7 +5746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -5734,7 +5772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>179</v>
       </c>
@@ -5760,7 +5798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -5786,7 +5824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>181</v>
       </c>
@@ -5812,7 +5850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>182</v>
       </c>
@@ -5835,7 +5873,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>183</v>
       </c>
@@ -5861,7 +5899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -5887,7 +5925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -5913,7 +5951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>186</v>
       </c>
@@ -5939,7 +5977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -5965,7 +6003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -5991,7 +6029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -6017,7 +6055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -6043,7 +6081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -6066,7 +6104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>193</v>
       </c>
@@ -6089,7 +6127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -6112,7 +6150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>195</v>
       </c>
@@ -6138,7 +6176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -6164,7 +6202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>197</v>
       </c>
@@ -6187,7 +6225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -6213,7 +6251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -6236,7 +6274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -6262,7 +6300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -6288,7 +6326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>202</v>
       </c>
@@ -6314,7 +6352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -6325,7 +6363,7 @@
         <v>1775</v>
       </c>
       <c r="D53">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E53">
         <v>90</v>
@@ -6337,7 +6375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -6363,7 +6401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>205</v>
       </c>
@@ -6389,7 +6427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -6415,7 +6453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -6441,7 +6479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>208</v>
       </c>
@@ -6464,7 +6502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>209</v>
       </c>
@@ -6487,7 +6525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>210</v>
       </c>
@@ -6513,7 +6551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>211</v>
       </c>
@@ -6536,7 +6574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -6559,7 +6597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>213</v>
       </c>
@@ -6585,7 +6623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -6611,7 +6649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>215</v>
       </c>
